--- a/po_analysis_by_asin/B01NBNJI6T_po_data.xlsx
+++ b/po_analysis_by_asin/B01NBNJI6T_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45362</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
